--- a/要件仕様.xlsx
+++ b/要件仕様.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\08_棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E81A2C-003A-4833-AA8B-1D7AD28F9983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CA9A9F-C20C-4D4D-A75C-A3FEDCA5C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="26412" windowHeight="12204" tabRatio="739" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="739" activeTab="7" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="要件機能" sheetId="14" r:id="rId1"/>
-    <sheet name="データの流れ" sheetId="9" r:id="rId2"/>
-    <sheet name="送信側のマイコンのプログラムフロー" sheetId="13" r:id="rId3"/>
-    <sheet name="HW構成" sheetId="1" r:id="rId4"/>
-    <sheet name="VBA仕様" sheetId="2" r:id="rId5"/>
-    <sheet name="画面遷移" sheetId="3" r:id="rId6"/>
-    <sheet name="テーブル定義E-R図" sheetId="4" r:id="rId7"/>
-    <sheet name="送信機仕様" sheetId="5" r:id="rId8"/>
-    <sheet name="受信機仕様" sheetId="6" r:id="rId9"/>
-    <sheet name="HW通信仕様" sheetId="7" r:id="rId10"/>
-    <sheet name="受信機回路図" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="データの流れ" sheetId="9" r:id="rId3"/>
+    <sheet name="送信側のマイコンのプログラムフロー" sheetId="13" r:id="rId4"/>
+    <sheet name="HW構成" sheetId="1" r:id="rId5"/>
+    <sheet name="VBA仕様" sheetId="2" r:id="rId6"/>
+    <sheet name="画面遷移" sheetId="3" r:id="rId7"/>
+    <sheet name="テーブル定義E-R図" sheetId="4" r:id="rId8"/>
+    <sheet name="送信機仕様" sheetId="5" r:id="rId9"/>
+    <sheet name="受信機仕様" sheetId="6" r:id="rId10"/>
+    <sheet name="HW通信仕様" sheetId="7" r:id="rId11"/>
+    <sheet name="受信機回路図" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
   <si>
     <t>保管区画高さ</t>
     <rPh sb="0" eb="2">
@@ -578,12 +579,266 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>作業指示日</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウシジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段取り順番</t>
+    <rPh sb="0" eb="2">
+      <t>ダンド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括段取り番号</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指示票番号</t>
+    <rPh sb="0" eb="5">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基板LN</t>
+    <rPh sb="0" eb="2">
+      <t>キバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面番号</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面副番</t>
+    <rPh sb="0" eb="2">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品群番</t>
+    <rPh sb="0" eb="1">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段取リストファイル名</t>
+    <rPh sb="0" eb="2">
+      <t>ダンドリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段取リスト保存先Path</t>
+    <rPh sb="0" eb="2">
+      <t>ダンドリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホゾンサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T10_作業指示</t>
+    <rPh sb="4" eb="8">
+      <t>サギョウシジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設備番号</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設備台車番号</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設備セット番号</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品品名</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品型式</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カタシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィーダ幅</t>
+    <rPh sb="4" eb="5">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品引当番号</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキアテ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品回納</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品連番</t>
+    <rPh sb="2" eb="4">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統制期限</t>
+    <rPh sb="0" eb="2">
+      <t>トウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台数</t>
+    <rPh sb="0" eb="2">
+      <t>ダイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T11_段取りリスト</t>
+    <rPh sb="4" eb="6">
+      <t>ダンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T12_部品リスト</t>
+    <rPh sb="4" eb="6">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T13_リール管理棚番リスト</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1547,8 +1802,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6002319" y="4482347"/>
-          <a:ext cx="1523552" cy="587635"/>
+          <a:off x="6004560" y="4533894"/>
+          <a:ext cx="1520190" cy="594359"/>
           <a:chOff x="6682740" y="4206240"/>
           <a:chExt cx="1516380" cy="662940"/>
         </a:xfrm>
@@ -2207,8 +2462,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4331746" y="4413773"/>
-          <a:ext cx="1190513" cy="760655"/>
+          <a:off x="4330065" y="4465320"/>
+          <a:ext cx="1194435" cy="769620"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1188720" cy="769620"/>
         </a:xfrm>
@@ -2502,8 +2757,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7091531" y="5324581"/>
-          <a:ext cx="1523551" cy="587636"/>
+          <a:off x="7090410" y="5387334"/>
+          <a:ext cx="1520190" cy="594359"/>
           <a:chOff x="6682740" y="4206240"/>
           <a:chExt cx="1516380" cy="662940"/>
         </a:xfrm>
@@ -2812,8 +3067,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8271732" y="2584525"/>
-          <a:ext cx="1234776" cy="699695"/>
+          <a:off x="8268931" y="2613660"/>
+          <a:ext cx="1231414" cy="708660"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1231062" cy="708660"/>
         </a:xfrm>
@@ -3237,8 +3492,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12987618" y="5408407"/>
-          <a:ext cx="1192306" cy="760655"/>
+          <a:off x="12973050" y="5471160"/>
+          <a:ext cx="1190625" cy="769620"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1188720" cy="769620"/>
         </a:xfrm>
@@ -3402,8 +3657,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12987618" y="6446520"/>
-          <a:ext cx="1192306" cy="760655"/>
+          <a:off x="12973050" y="6522720"/>
+          <a:ext cx="1190625" cy="769620"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1188720" cy="769620"/>
         </a:xfrm>
@@ -3696,8 +3951,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11018520" y="2613660"/>
-          <a:ext cx="1286666" cy="708660"/>
+          <a:off x="11008995" y="2642795"/>
+          <a:ext cx="1283304" cy="717625"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1286666" cy="708660"/>
         </a:xfrm>
@@ -4206,8 +4461,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12987618" y="7545593"/>
-          <a:ext cx="1192306" cy="760655"/>
+          <a:off x="12973050" y="7635240"/>
+          <a:ext cx="1190625" cy="769620"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1188720" cy="769620"/>
         </a:xfrm>
@@ -5235,8 +5490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15497744" y="2584525"/>
-          <a:ext cx="1283075" cy="699695"/>
+          <a:off x="15478134" y="2613660"/>
+          <a:ext cx="1279713" cy="708660"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1275378" cy="708660"/>
         </a:xfrm>
@@ -6980,8 +7235,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6002319" y="12563622"/>
-          <a:ext cx="1523552" cy="587636"/>
+          <a:off x="6004560" y="12711540"/>
+          <a:ext cx="1520190" cy="594359"/>
           <a:chOff x="6682740" y="4206240"/>
           <a:chExt cx="1516380" cy="662940"/>
         </a:xfrm>
@@ -7474,8 +7729,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4331746" y="12495048"/>
-          <a:ext cx="1190513" cy="760655"/>
+          <a:off x="4330065" y="12642966"/>
+          <a:ext cx="1194435" cy="769619"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1188720" cy="769620"/>
         </a:xfrm>
@@ -7915,8 +8170,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8271732" y="10665799"/>
-          <a:ext cx="1234776" cy="699696"/>
+          <a:off x="8268931" y="10791305"/>
+          <a:ext cx="1231414" cy="708661"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1231062" cy="708660"/>
         </a:xfrm>
@@ -8189,15 +8444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>136207</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>69966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>31866</xdr:rowOff>
+      <xdr:colOff>470534</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>60441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8215,12 +8470,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8231679" y="9570720"/>
-          <a:ext cx="931718" cy="7533409"/>
+          <a:off x="8385333" y="9184915"/>
+          <a:ext cx="752475" cy="7668577"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -25000"/>
+            <a:gd name="adj1" fmla="val -30380"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8250,15 +8505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>31866</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>60441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>146165</xdr:rowOff>
+      <xdr:colOff>226695</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>174740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8273,8 +8528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11974606" y="13398242"/>
-          <a:ext cx="982532" cy="302558"/>
+          <a:off x="12106275" y="13395441"/>
+          <a:ext cx="979170" cy="304799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8340,8 +8595,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12987618" y="13489682"/>
-          <a:ext cx="1192306" cy="760655"/>
+          <a:off x="12973050" y="13648806"/>
+          <a:ext cx="1190625" cy="769619"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1188720" cy="769620"/>
         </a:xfrm>
@@ -8505,8 +8760,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12987618" y="14527795"/>
-          <a:ext cx="1192306" cy="760655"/>
+          <a:off x="12973050" y="14700366"/>
+          <a:ext cx="1190625" cy="769619"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1188720" cy="769620"/>
         </a:xfrm>
@@ -8799,8 +9054,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11018520" y="10694934"/>
-          <a:ext cx="1286666" cy="708661"/>
+          <a:off x="11008995" y="10820440"/>
+          <a:ext cx="1283304" cy="717626"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1286666" cy="708660"/>
         </a:xfrm>
@@ -9214,8 +9469,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12987618" y="15626867"/>
-          <a:ext cx="1192306" cy="760657"/>
+          <a:off x="12973050" y="15812885"/>
+          <a:ext cx="1190625" cy="769621"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1188720" cy="769620"/>
         </a:xfrm>
@@ -10131,8 +10386,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15497744" y="10665799"/>
-          <a:ext cx="1283075" cy="699696"/>
+          <a:off x="15478134" y="10791305"/>
+          <a:ext cx="1279713" cy="708661"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1275378" cy="708660"/>
         </a:xfrm>
@@ -11195,16 +11450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>129579</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>101004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:colOff>434789</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11219,8 +11474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7951695" y="16884614"/>
-          <a:ext cx="1909481" cy="865503"/>
+          <a:off x="7515226" y="16293504"/>
+          <a:ext cx="2111188" cy="1051521"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -11278,7 +11533,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>作業直前で出力する。</a:t>
+            <a:t>作業直前に逐次出力することで棚番情報を最新化する。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11311,8 +11566,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8061064" y="14494177"/>
-          <a:ext cx="1190513" cy="760655"/>
+          <a:off x="8058263" y="14664506"/>
+          <a:ext cx="1187151" cy="771861"/>
           <a:chOff x="7528560" y="5067300"/>
           <a:chExt cx="1188720" cy="769620"/>
         </a:xfrm>
@@ -11528,8 +11783,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10744649" y="13576634"/>
-          <a:ext cx="1523552" cy="587636"/>
+          <a:off x="10735124" y="13737999"/>
+          <a:ext cx="1520190" cy="594359"/>
           <a:chOff x="6682740" y="4206240"/>
           <a:chExt cx="1516380" cy="662940"/>
         </a:xfrm>
@@ -11729,8 +11984,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10744649" y="14598612"/>
-          <a:ext cx="1523552" cy="587636"/>
+          <a:off x="10735124" y="14771183"/>
+          <a:ext cx="1520190" cy="594359"/>
           <a:chOff x="6682740" y="4206240"/>
           <a:chExt cx="1516380" cy="662940"/>
         </a:xfrm>
@@ -11934,8 +12189,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10744649" y="15701269"/>
-          <a:ext cx="1523552" cy="587636"/>
+          <a:off x="10735124" y="15887287"/>
+          <a:ext cx="1520190" cy="594359"/>
           <a:chOff x="6682740" y="4206240"/>
           <a:chExt cx="1516380" cy="662940"/>
         </a:xfrm>
@@ -12047,6 +12302,156 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123938</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>157931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>577664</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>167792</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="180" name="グループ化 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C756D72C-EA5B-66E2-9DFB-EF5ACFF4A0DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9315563" y="12540431"/>
+          <a:ext cx="1187151" cy="771861"/>
+          <a:chOff x="7528560" y="5067300"/>
+          <a:chExt cx="1188720" cy="769620"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="フローチャート: 磁気ディスク 191">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5A533B-26A1-EE09-11FC-0DA27D05989F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7528560" y="5067300"/>
+            <a:ext cx="1188720" cy="708660"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="195" name="テキスト ボックス 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DD67ED-0556-229E-4511-3894D6406777}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7620000" y="5227320"/>
+            <a:ext cx="1059180" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>AccessDB</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>棚ピカリ</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -39501,15 +39906,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -39567,16 +39972,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312027</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>341981</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -39588,17 +39993,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="5" idx="3"/>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="5" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="10477500" y="2895600"/>
-          <a:ext cx="1299210" cy="2076450"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8392248" y="6050412"/>
+          <a:ext cx="749125" cy="29954"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -39649,8 +40056,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3474720" y="4328160"/>
-          <a:ext cx="502920" cy="502920"/>
+          <a:off x="3472881" y="4299257"/>
+          <a:ext cx="502920" cy="498978"/>
           <a:chOff x="3543300" y="4091940"/>
           <a:chExt cx="502920" cy="502920"/>
         </a:xfrm>
@@ -39844,8 +40251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6736080" y="4312920"/>
-          <a:ext cx="502920" cy="502920"/>
+          <a:off x="6738970" y="4284017"/>
+          <a:ext cx="502920" cy="498978"/>
           <a:chOff x="3192780" y="4091940"/>
           <a:chExt cx="502920" cy="502920"/>
         </a:xfrm>
@@ -40039,8 +40446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8496300" y="3169920"/>
-          <a:ext cx="502920" cy="198120"/>
+          <a:off x="8500767" y="3148899"/>
+          <a:ext cx="502920" cy="196807"/>
           <a:chOff x="8496300" y="3169920"/>
           <a:chExt cx="502920" cy="198120"/>
         </a:xfrm>
@@ -40170,16 +40577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66479</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>569399</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170268</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -40194,7 +40601,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12192000" y="3459480"/>
+          <a:off x="8757746" y="5594394"/>
           <a:ext cx="0" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -40280,31 +40687,1043 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D943A9AA-9220-1E96-6573-C6C8E0623AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="753329" y="7983921"/>
+          <a:ext cx="2628112" cy="2285474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="グループ化 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F765AB-CEFD-7F24-FA9E-8EE0C247208F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3381441" y="8377533"/>
+          <a:ext cx="710762" cy="500293"/>
+          <a:chOff x="3389728" y="8177432"/>
+          <a:chExt cx="706315" cy="508782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="30" name="グループ化 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC30294E-B55F-4E5A-B8A7-CA22DD90365A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3481168" y="8177432"/>
+            <a:ext cx="502920" cy="508782"/>
+            <a:chOff x="3543300" y="4091940"/>
+            <a:chExt cx="502920" cy="502920"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="31" name="直線コネクタ 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3434703F-AE07-627B-4CE0-37FDC8EC2B47}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3848100" y="4091940"/>
+              <a:ext cx="0" cy="502920"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="32" name="直線コネクタ 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400822FF-0F33-3152-BC81-2ACED2EC178A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="3848100" y="4145280"/>
+              <a:ext cx="198120" cy="198120"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="33" name="直線コネクタ 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BECE82-5B9A-BBB1-CC11-E4A15E1BB892}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3848100" y="4351020"/>
+              <a:ext cx="198120" cy="198120"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="34" name="直線コネクタ 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B61DEE-319F-86E6-9759-83A86A2518EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3543300" y="4091940"/>
+              <a:ext cx="0" cy="502920"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="35" name="直線コネクタ 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CF997C-133E-0772-0D64-F58D0B1DC46F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3389728" y="8431823"/>
+            <a:ext cx="706315" cy="15240"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1A679F-DE4C-50F0-7390-ACF1B81B77A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4091940" y="7658100"/>
+          <a:ext cx="2438400" cy="2278380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFC2359-B0E4-742A-74DB-3C1823D11AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="755552" y="10821572"/>
+          <a:ext cx="2634176" cy="2339340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581171</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>106973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1089953</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>140679</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="グループ化 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A18AC47-BCF4-1959-CE09-ED6501BD93FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1995867" y="10369270"/>
+          <a:ext cx="601265" cy="508782"/>
+          <a:chOff x="3389727" y="8177432"/>
+          <a:chExt cx="613998" cy="508782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="40" name="グループ化 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1CD26F-5FBD-AC26-D284-5A665AFE8B9E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3481168" y="8177432"/>
+            <a:ext cx="502920" cy="508782"/>
+            <a:chOff x="3543300" y="4091940"/>
+            <a:chExt cx="502920" cy="502920"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="直線コネクタ 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39CF0AAF-0969-2B39-5D54-BE3E9716E37D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3848100" y="4091940"/>
+              <a:ext cx="0" cy="502920"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="43" name="直線コネクタ 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D71AEC1B-5085-D673-2960-94BECC82757D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="3848100" y="4145280"/>
+              <a:ext cx="198120" cy="198120"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="44" name="直線コネクタ 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C1EA95-2A6F-F6E5-3BCD-54E5C6301522}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3848100" y="4351020"/>
+              <a:ext cx="198120" cy="198120"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="45" name="直線コネクタ 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCB7A3E-F0DE-DEBC-0AA9-299AB5287334}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3543300" y="4091940"/>
+              <a:ext cx="0" cy="502920"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="41" name="直線コネクタ 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0AF207-E33A-86CB-2809-90C4269F3160}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="3690102" y="8133440"/>
+            <a:ext cx="13248" cy="613998"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16998</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>715107</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E480C8-0E78-3DC6-CED6-0293FCAC2B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067321" y="10821572"/>
+          <a:ext cx="2480017" cy="2339340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>35755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>157676</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="グループ化 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FF9746-9531-FEAD-66C4-CC493BE2F70D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3381441" y="11954486"/>
+          <a:ext cx="665042" cy="500293"/>
+          <a:chOff x="3389728" y="8177432"/>
+          <a:chExt cx="662138" cy="508782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="49" name="グループ化 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB2CA7A-A910-657B-C3F1-DE9133114F2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3481168" y="8177432"/>
+            <a:ext cx="416178" cy="508782"/>
+            <a:chOff x="3543300" y="4091940"/>
+            <a:chExt cx="416178" cy="502920"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="51" name="直線コネクタ 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9A394E-1F1D-EBA2-7DC5-9A7B93A48150}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3959478" y="4091940"/>
+              <a:ext cx="0" cy="502920"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="54" name="直線コネクタ 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE3070B-F15A-DE01-15DB-3F5314ED0648}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3543300" y="4091940"/>
+              <a:ext cx="0" cy="502920"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="直線コネクタ 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70FBFF5-D070-6D80-36B4-1F49251CC220}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3389728" y="8432776"/>
+            <a:ext cx="662138" cy="14286"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351698</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>509959</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="楕円 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BBAD11-9878-F0C6-64BD-D59C767ACFF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733806" y="12016154"/>
+          <a:ext cx="158261" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66479</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>149246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>569399</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>149246</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26">
+        <xdr:cNvPr id="61" name="直線コネクタ 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E44718-83DD-45C2-B467-A834480E556F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5247C422-D64F-2C90-7572-93609D2458E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10347960" y="4312920"/>
+        <a:xfrm rot="5400000">
+          <a:off x="8757746" y="5951745"/>
           <a:ext cx="0" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -40313,6 +41732,294 @@
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>715107</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>341980</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>658</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="コネクタ: カギ線 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6857EE61-6016-8265-3209-B8FFEE119610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="47" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6079517" y="9406304"/>
+          <a:ext cx="3171102" cy="2233439"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314913</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>97018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473174</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>79434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="楕円 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D38C83-2333-3CBD-9FE5-4BA046EDAD4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6878623" y="12015749"/>
+          <a:ext cx="158261" cy="171602"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>136635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>69370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5915D26-41E8-41A0-ACDC-B58D46A2FFA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6868510" y="11866180"/>
+          <a:ext cx="0" cy="500293"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66479</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>86185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>569399</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>86185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47F0F47-9C2A-9E5D-76ED-947DA6AAFE4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8757746" y="8915663"/>
+          <a:ext cx="0" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>606448</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>26277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>36787</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="コネクタ: カギ線 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7687070D-3FD8-E88D-63C8-41188897CADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2067386" y="7026167"/>
+          <a:ext cx="5347663" cy="957753"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -46031,23 +47738,23 @@
   </sheetPr>
   <dimension ref="A2:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="22"/>
     <col min="2" max="2" width="48.36328125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -46055,7 +47762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>57</v>
       </c>
@@ -46063,17 +47770,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -46081,7 +47788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>2</v>
       </c>
@@ -46089,7 +47796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -46097,7 +47804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>4</v>
       </c>
@@ -46105,12 +47812,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="22" t="s">
         <v>67</v>
       </c>
@@ -46123,6 +47830,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD3F357-3E3D-4850-A234-B2B4B4AE3DCB}">
+  <sheetPr codeName="Sheet6">
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA295E08-6E6F-4767-892E-8281654A2E98}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -46133,58 +47858,58 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.81640625" customWidth="1"/>
     <col min="2" max="15" width="8.7265625" customWidth="1"/>
     <col min="16" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
+    <row r="1" x14ac:dyDescent="0.3"/>
+    <row r="2" x14ac:dyDescent="0.3"/>
+    <row r="3" x14ac:dyDescent="0.3"/>
+    <row r="4" x14ac:dyDescent="0.3"/>
+    <row r="5" x14ac:dyDescent="0.3"/>
+    <row r="6" x14ac:dyDescent="0.3"/>
+    <row r="7" x14ac:dyDescent="0.3"/>
+    <row r="8" x14ac:dyDescent="0.3"/>
+    <row r="9" x14ac:dyDescent="0.3"/>
+    <row r="10" x14ac:dyDescent="0.3"/>
+    <row r="11" x14ac:dyDescent="0.3"/>
+    <row r="12" x14ac:dyDescent="0.3"/>
+    <row r="13" x14ac:dyDescent="0.3"/>
+    <row r="14" x14ac:dyDescent="0.3"/>
+    <row r="15" x14ac:dyDescent="0.3"/>
+    <row r="16" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
+    <row r="23" x14ac:dyDescent="0.3"/>
+    <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" x14ac:dyDescent="0.3"/>
+    <row r="26" x14ac:dyDescent="0.3"/>
+    <row r="27" x14ac:dyDescent="0.3"/>
+    <row r="28" x14ac:dyDescent="0.3"/>
+    <row r="29" x14ac:dyDescent="0.3"/>
+    <row r="30" x14ac:dyDescent="0.3"/>
+    <row r="31" x14ac:dyDescent="0.3"/>
+    <row r="32" x14ac:dyDescent="0.3"/>
+    <row r="33" x14ac:dyDescent="0.3"/>
+    <row r="34" x14ac:dyDescent="0.3"/>
+    <row r="35" x14ac:dyDescent="0.3"/>
+    <row r="36" x14ac:dyDescent="0.3"/>
+    <row r="37" x14ac:dyDescent="0.3"/>
+    <row r="38" x14ac:dyDescent="0.3"/>
+    <row r="39" x14ac:dyDescent="0.3"/>
+    <row r="40" x14ac:dyDescent="0.3"/>
+    <row r="41" x14ac:dyDescent="0.3"/>
+    <row r="42" x14ac:dyDescent="0.3"/>
+    <row r="43" x14ac:dyDescent="0.3"/>
+    <row r="44" x14ac:dyDescent="0.3"/>
+    <row r="45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46192,7 +47917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA78CF7-E9BB-403D-8FFA-E5FE44131DD6}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -46203,7 +47928,7 @@
       <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.54296875" style="4" customWidth="1"/>
     <col min="2" max="4" width="8.7265625" style="4" customWidth="1"/>
@@ -46212,27 +47937,27 @@
     <col min="24" max="16384" width="8.7265625" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:22"/>
-    <row r="3" spans="1:22"/>
-    <row r="4" spans="1:22"/>
-    <row r="5" spans="1:22"/>
-    <row r="6" spans="1:22"/>
-    <row r="7" spans="1:22"/>
-    <row r="8" spans="1:22"/>
-    <row r="9" spans="1:22"/>
-    <row r="10" spans="1:22"/>
-    <row r="11" spans="1:22"/>
-    <row r="12" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E13" s="21"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -46252,15 +47977,15 @@
       <c r="U13" s="20"/>
       <c r="V13" s="19"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E14" s="10"/>
       <c r="V14" s="14"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E15" s="10"/>
       <c r="V15" s="14"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E16" s="10"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
@@ -46279,7 +48004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="4:22">
+    <row r="17" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E17" s="10"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11" t="s">
@@ -46298,7 +48023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="4:22">
+    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E18" s="10"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11" t="s">
@@ -46317,7 +48042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="4:22">
+    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E19" s="10"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11" t="s">
@@ -46336,7 +48061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="4:22">
+    <row r="20" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E20" s="10"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11" t="s">
@@ -46355,7 +48080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="4:22">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E21" s="10"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11" t="s">
@@ -46374,7 +48099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="4:22">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E22" s="10"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="s">
@@ -46393,7 +48118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="4:22">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E23" s="10"/>
       <c r="K23" s="11"/>
       <c r="L23" s="18" t="s">
@@ -46414,7 +48139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="4:22">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E24" s="10"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11" t="s">
@@ -46433,7 +48158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="4:22">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E25" s="10"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11" t="s">
@@ -46452,7 +48177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="4:22">
+    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E26" s="10"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="s">
@@ -46471,7 +48196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="4:22">
+    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E27" s="10"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="s">
@@ -46490,7 +48215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="4:22">
+    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E28" s="10"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11" t="s">
@@ -46509,7 +48234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="4:22">
+    <row r="29" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E29" s="10"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11" t="s">
@@ -46530,7 +48255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="4:22">
+    <row r="30" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D30" s="14"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11" t="s">
@@ -46549,7 +48274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="4:22">
+    <row r="31" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D31" s="15" t="s">
         <v>50</v>
       </c>
@@ -46576,7 +48301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="4:22">
+    <row r="32" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D32" s="14"/>
       <c r="H32" s="4" t="s">
         <v>49</v>
@@ -46598,7 +48323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="5:23">
+    <row r="33" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E33" s="10"/>
       <c r="F33" s="4" t="s">
         <v>49</v>
@@ -46623,7 +48348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="5:23">
+    <row r="34" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
         <v>49</v>
       </c>
@@ -46649,7 +48374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="5:23">
+    <row r="35" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E35" s="10"/>
       <c r="K35" s="11"/>
       <c r="L35" s="12"/>
@@ -46664,7 +48389,7 @@
       <c r="U35" s="11"/>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="5:23">
+    <row r="36" spans="5:23" x14ac:dyDescent="0.3">
       <c r="E36" s="9"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -46684,15 +48409,15 @@
       <c r="U36" s="6"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="5:23"/>
-    <row r="38" spans="5:23"/>
-    <row r="39" spans="5:23"/>
-    <row r="40" spans="5:23"/>
-    <row r="41" spans="5:23"/>
-    <row r="42" spans="5:23"/>
-    <row r="43" spans="5:23"/>
-    <row r="44" spans="5:23"/>
-    <row r="45" spans="5:23"/>
+    <row r="37" spans="5:23" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="5:23" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="5:23" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="5:23" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="5:23" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="5:23" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="5:23" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="5:23" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="5:23" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46702,6 +48427,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8A4DCB-D27B-4BCE-958F-CD300ABC6F16}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8685120-4853-4983-903F-A10DB937D18C}">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -46709,37 +48447,37 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="21" width="8.7265625" customWidth="1"/>
     <col min="22" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
+    <row r="1" x14ac:dyDescent="0.3"/>
+    <row r="2" x14ac:dyDescent="0.3"/>
+    <row r="3" x14ac:dyDescent="0.3"/>
+    <row r="4" x14ac:dyDescent="0.3"/>
+    <row r="5" x14ac:dyDescent="0.3"/>
+    <row r="6" x14ac:dyDescent="0.3"/>
+    <row r="7" x14ac:dyDescent="0.3"/>
+    <row r="8" x14ac:dyDescent="0.3"/>
+    <row r="9" x14ac:dyDescent="0.3"/>
+    <row r="10" x14ac:dyDescent="0.3"/>
+    <row r="11" x14ac:dyDescent="0.3"/>
+    <row r="12" x14ac:dyDescent="0.3"/>
+    <row r="13" x14ac:dyDescent="0.3"/>
+    <row r="14" x14ac:dyDescent="0.3"/>
+    <row r="15" x14ac:dyDescent="0.3"/>
+    <row r="16" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
+    <row r="23" x14ac:dyDescent="0.3"/>
+    <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46747,7 +48485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102E982B-AE8D-44EF-AB9F-018136D6171F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -46755,9 +48493,9 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -46770,7 +48508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A27E58-6A65-444B-84AC-E4586A4099F5}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U35"/>
@@ -46779,47 +48517,47 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="21" width="8.7265625" customWidth="1"/>
     <col min="22" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
+    <row r="1" x14ac:dyDescent="0.3"/>
+    <row r="2" x14ac:dyDescent="0.3"/>
+    <row r="3" x14ac:dyDescent="0.3"/>
+    <row r="4" x14ac:dyDescent="0.3"/>
+    <row r="5" x14ac:dyDescent="0.3"/>
+    <row r="6" x14ac:dyDescent="0.3"/>
+    <row r="7" x14ac:dyDescent="0.3"/>
+    <row r="8" x14ac:dyDescent="0.3"/>
+    <row r="9" x14ac:dyDescent="0.3"/>
+    <row r="10" x14ac:dyDescent="0.3"/>
+    <row r="11" x14ac:dyDescent="0.3"/>
+    <row r="12" x14ac:dyDescent="0.3"/>
+    <row r="13" x14ac:dyDescent="0.3"/>
+    <row r="14" x14ac:dyDescent="0.3"/>
+    <row r="15" x14ac:dyDescent="0.3"/>
+    <row r="16" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
+    <row r="23" x14ac:dyDescent="0.3"/>
+    <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" x14ac:dyDescent="0.3"/>
+    <row r="26" x14ac:dyDescent="0.3"/>
+    <row r="27" x14ac:dyDescent="0.3"/>
+    <row r="28" x14ac:dyDescent="0.3"/>
+    <row r="29" x14ac:dyDescent="0.3"/>
+    <row r="30" x14ac:dyDescent="0.3"/>
+    <row r="31" x14ac:dyDescent="0.3"/>
+    <row r="32" x14ac:dyDescent="0.3"/>
+    <row r="33" x14ac:dyDescent="0.3"/>
+    <row r="34" x14ac:dyDescent="0.3"/>
+    <row r="35" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46827,7 +48565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C0010D-1300-440C-B407-6DD6E28A0629}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -46838,98 +48576,98 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="48" width="8.81640625" customWidth="1"/>
     <col min="49" max="16384" width="8.81640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
+    <row r="1" x14ac:dyDescent="0.3"/>
+    <row r="2" x14ac:dyDescent="0.3"/>
+    <row r="3" x14ac:dyDescent="0.3"/>
+    <row r="4" x14ac:dyDescent="0.3"/>
+    <row r="5" x14ac:dyDescent="0.3"/>
+    <row r="6" x14ac:dyDescent="0.3"/>
+    <row r="7" x14ac:dyDescent="0.3"/>
+    <row r="8" x14ac:dyDescent="0.3"/>
+    <row r="9" x14ac:dyDescent="0.3"/>
+    <row r="10" x14ac:dyDescent="0.3"/>
+    <row r="11" x14ac:dyDescent="0.3"/>
+    <row r="12" x14ac:dyDescent="0.3"/>
+    <row r="13" x14ac:dyDescent="0.3"/>
+    <row r="14" x14ac:dyDescent="0.3"/>
+    <row r="15" x14ac:dyDescent="0.3"/>
+    <row r="16" x14ac:dyDescent="0.3"/>
+    <row r="17" x14ac:dyDescent="0.3"/>
+    <row r="18" x14ac:dyDescent="0.3"/>
+    <row r="19" x14ac:dyDescent="0.3"/>
+    <row r="20" x14ac:dyDescent="0.3"/>
+    <row r="21" x14ac:dyDescent="0.3"/>
+    <row r="22" x14ac:dyDescent="0.3"/>
+    <row r="23" x14ac:dyDescent="0.3"/>
+    <row r="24" x14ac:dyDescent="0.3"/>
+    <row r="25" x14ac:dyDescent="0.3"/>
+    <row r="26" x14ac:dyDescent="0.3"/>
+    <row r="27" x14ac:dyDescent="0.3"/>
+    <row r="28" x14ac:dyDescent="0.3"/>
+    <row r="29" x14ac:dyDescent="0.3"/>
+    <row r="30" x14ac:dyDescent="0.3"/>
+    <row r="31" x14ac:dyDescent="0.3"/>
+    <row r="32" x14ac:dyDescent="0.3"/>
+    <row r="33" x14ac:dyDescent="0.3"/>
+    <row r="34" x14ac:dyDescent="0.3"/>
+    <row r="35" x14ac:dyDescent="0.3"/>
+    <row r="36" x14ac:dyDescent="0.3"/>
+    <row r="37" x14ac:dyDescent="0.3"/>
+    <row r="38" x14ac:dyDescent="0.3"/>
+    <row r="39" x14ac:dyDescent="0.3"/>
+    <row r="40" x14ac:dyDescent="0.3"/>
+    <row r="41" x14ac:dyDescent="0.3"/>
+    <row r="42" x14ac:dyDescent="0.3"/>
+    <row r="43" x14ac:dyDescent="0.3"/>
+    <row r="44" x14ac:dyDescent="0.3"/>
+    <row r="45" x14ac:dyDescent="0.3"/>
+    <row r="46" x14ac:dyDescent="0.3"/>
+    <row r="47" x14ac:dyDescent="0.3"/>
+    <row r="48" x14ac:dyDescent="0.3"/>
+    <row r="49" x14ac:dyDescent="0.3"/>
+    <row r="50" x14ac:dyDescent="0.3"/>
+    <row r="51" x14ac:dyDescent="0.3"/>
+    <row r="52" x14ac:dyDescent="0.3"/>
+    <row r="53" x14ac:dyDescent="0.3"/>
+    <row r="54" x14ac:dyDescent="0.3"/>
+    <row r="55" x14ac:dyDescent="0.3"/>
+    <row r="56" x14ac:dyDescent="0.3"/>
+    <row r="57" x14ac:dyDescent="0.3"/>
+    <row r="58" x14ac:dyDescent="0.3"/>
+    <row r="59" x14ac:dyDescent="0.3"/>
+    <row r="60" x14ac:dyDescent="0.3"/>
+    <row r="61" x14ac:dyDescent="0.3"/>
+    <row r="62" x14ac:dyDescent="0.3"/>
+    <row r="63" x14ac:dyDescent="0.3"/>
+    <row r="64" x14ac:dyDescent="0.3"/>
+    <row r="65" x14ac:dyDescent="0.3"/>
+    <row r="66" x14ac:dyDescent="0.3"/>
+    <row r="67" x14ac:dyDescent="0.3"/>
+    <row r="68" x14ac:dyDescent="0.3"/>
+    <row r="69" x14ac:dyDescent="0.3"/>
+    <row r="70" x14ac:dyDescent="0.3"/>
+    <row r="71" x14ac:dyDescent="0.3"/>
+    <row r="72" x14ac:dyDescent="0.3"/>
+    <row r="73" x14ac:dyDescent="0.3"/>
+    <row r="74" x14ac:dyDescent="0.3"/>
+    <row r="75" x14ac:dyDescent="0.3"/>
+    <row r="76" x14ac:dyDescent="0.3"/>
+    <row r="77" x14ac:dyDescent="0.3"/>
+    <row r="78" x14ac:dyDescent="0.3"/>
+    <row r="79" x14ac:dyDescent="0.3"/>
+    <row r="80" x14ac:dyDescent="0.3"/>
+    <row r="81" x14ac:dyDescent="0.3"/>
+    <row r="82" x14ac:dyDescent="0.3"/>
+    <row r="83" x14ac:dyDescent="0.3"/>
+    <row r="84" x14ac:dyDescent="0.3"/>
+    <row r="85" x14ac:dyDescent="0.3"/>
+    <row r="86" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46937,7 +48675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7289152-0CA2-4A07-85F2-3BC4F198E231}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -46948,7 +48686,7 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46956,18 +48694,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A103868B-DA85-4FD4-9848-14DE3DA59DF2}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.7265625" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
@@ -46983,27 +48721,24 @@
     <col min="14" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.7265625" customWidth="1"/>
-    <col min="17" max="17" width="3.26953125" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" customWidth="1"/>
     <col min="19" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16"/>
-    <row r="3" spans="1:16"/>
-    <row r="4" spans="1:16">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -47013,95 +48748,35 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="O10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="O11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="O12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="O13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="O15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="O16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="O17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -47112,7 +48787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -47141,7 +48816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -47161,7 +48836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -47181,7 +48856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -47201,7 +48876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -47221,7 +48896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>18</v>
       </c>
@@ -47241,7 +48916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -47261,7 +48936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -47275,7 +48950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>8</v>
       </c>
@@ -47286,7 +48961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -47294,7 +48969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
@@ -47302,7 +48977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>1</v>
       </c>
@@ -47310,11 +48985,345 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15"/>
-    <row r="32" spans="2:15"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+      <c r="K46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47322,7 +49331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676D7968-394D-4012-9295-B0B76A20DE08}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -47333,25 +49342,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD3F357-3E3D-4850-A234-B2B4B4AE3DCB}">
-  <sheetPr codeName="Sheet6">
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
